--- a/Testes/UC01_Test Scenario.xlsx
+++ b/Testes/UC01_Test Scenario.xlsx
@@ -15,17 +15,17 @@
   <calcPr iterateDelta="0.0001"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1611569456" val="982" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1611569456" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1611569456" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1611569456"/>
+      <pm:revision xmlns:pm="smNativeData" day="1611573139" val="982" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1611573139" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1611573139" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1611573139"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="73">
   <si>
     <t>Project Name</t>
   </si>
@@ -97,27 +97,518 @@
     <t>Test Case Steps</t>
   </si>
   <si>
-    <t>1. Enter valid username
-2. Enter valid password
-3. Click login button</t>
-  </si>
-  <si>
-    <t>1. Enter valid username
-2. Enter invalid password
-3. Click login button</t>
-  </si>
-  <si>
-    <t>1. Enter invalid username
-2. Enter valid password
-3. Click login button</t>
-  </si>
-  <si>
-    <t>1. Enter invalid username
-2. Enter invalid password
-3. Click login button</t>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="11"/>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="none"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611573139" ulstyle="none">
+              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
+              <pm:cs/>
+              <pm:ea/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve">O colaborador inicia o registo de organização.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="11"/>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="single"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611573139" ulstyle="single">
+              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
+              <pm:cs/>
+              <pm:ea/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="11"/>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="none"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611573139" ulstyle="none">
+              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
+              <pm:cs/>
+              <pm:ea/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve">O sistema solicita os dados necessários (Nome Organização, NIF, Endereços, Contacto).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="11"/>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="single"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611573139" ulstyle="single">
+              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
+              <pm:cs/>
+              <pm:ea/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve">3. </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="11"/>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="none"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611573139" ulstyle="none">
+              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
+              <pm:cs/>
+              <pm:ea/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve">O colaborador introduz os dados solicitados.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="11"/>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="single"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611573139" ulstyle="single">
+              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
+              <pm:cs/>
+              <pm:ea/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve">4. </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="11"/>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="none"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611573139" ulstyle="none">
+              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
+              <pm:cs/>
+              <pm:ea/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve">O sistema valida e apresenta os dados ao colaborador, pedindo que os confirme.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="11"/>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="single"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611573139" ulstyle="single">
+              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
+              <pm:cs/>
+              <pm:ea/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve">5. </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="11"/>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="none"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611573139" ulstyle="none">
+              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
+              <pm:cs/>
+              <pm:ea/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve">O colaborador confirma os dados.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="11"/>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="single"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611573139" ulstyle="single">
+              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
+              <pm:cs/>
+              <pm:ea/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve">6. </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="11"/>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="none"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611573139" ulstyle="none">
+              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
+              <pm:cs/>
+              <pm:ea/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t>O sistema regista os dados e informa o colaborador do sucesso da operação.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="11"/>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="none"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611573139" ulstyle="none">
+              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
+              <pm:cs/>
+              <pm:ea/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve">O colaborador solicita o cancelamento do registo da organização.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="11"/>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="single"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611573139" ulstyle="single">
+              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
+              <pm:cs/>
+              <pm:ea/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="11"/>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="none"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611573139" ulstyle="none">
+              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
+              <pm:cs/>
+              <pm:ea/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t>O caso de uso termina.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="11"/>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="none"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611573139" ulstyle="none">
+              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
+              <pm:cs/>
+              <pm:ea/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve">Dados mínimos obrigatórios em falta.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="11"/>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="single"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611573139" ulstyle="single">
+              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
+              <pm:cs/>
+              <pm:ea/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="11"/>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="none"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611573139" ulstyle="none">
+              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
+              <pm:cs/>
+              <pm:ea/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve">O sistema informa quais os dados em falta.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="11"/>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="single"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611573139" ulstyle="single">
+              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
+              <pm:cs/>
+              <pm:ea/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="11"/>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="none"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611573139" ulstyle="none">
+              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
+              <pm:cs/>
+              <pm:ea/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve"> O sistema permite a introdução dos dados em falta.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="11"/>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="single"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611573139" ulstyle="single">
+              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
+              <pm:cs/>
+              <pm:ea/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve">4. </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="11"/>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="none"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611573139" ulstyle="none">
+              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
+              <pm:cs/>
+              <pm:ea/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve">O colaborador não insere os dados.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="11"/>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="single"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611573139" ulstyle="single">
+              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
+              <pm:cs/>
+              <pm:ea/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve">5. </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="11"/>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="none"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611573139" ulstyle="none">
+              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
+              <pm:cs/>
+              <pm:ea/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t>O caso de uso termina.</t>
+    </r>
   </si>
   <si>
     <t>Preconditions</t>
+  </si>
+  <si>
+    <t>A plataforma tem de permitir o registo de organizações</t>
   </si>
   <si>
     <t>Test Data</t>
@@ -142,16 +633,13 @@
     <t>Post Conditions</t>
   </si>
   <si>
-    <t>The user should be able to see the homepage</t>
+    <t>A organização fica registada na plataforma</t>
   </si>
   <si>
     <t>Error message "invalid user or password"</t>
   </si>
   <si>
     <t>Expected Result</t>
-  </si>
-  <si>
-    <t>Successful login</t>
   </si>
   <si>
     <t>Popup Message: Invalid username or password</t>
@@ -286,7 +774,7 @@
     <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* (#,##0);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="9" formatCode="0%"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -294,7 +782,7 @@
       <sz val="12"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1611569456" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611573139" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Times New Roman" sz="240" lang="default"/>
             <pm:ea face="SimSun" sz="240" lang="default"/>
@@ -309,10 +797,56 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1611569456" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611573139" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611573139" ulstyle="none">
+            <pm:latin face="Calibri" sz="220" lang="default"/>
+            <pm:cs face="Arial" sz="220" lang="default"/>
+            <pm:ea face="Arial" sz="220" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611573139" ulstyle="single">
+            <pm:latin face="Calibri" sz="220" lang="default"/>
+            <pm:cs face="Arial" sz="220" lang="default"/>
+            <pm:ea face="Arial" sz="220" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611573139" ulstyle="none" kern="1">
+            <pm:latin face="Calibri" sz="220" lang="default"/>
+            <pm:cs face="Times New Roman" sz="220" lang="default"/>
+            <pm:ea face="SimSun" sz="220" lang="default"/>
           </pm:charSpec>
         </ext>
       </extLst>
@@ -331,7 +865,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1611569456" type="1" fgLvl="100" fgClr="00FFFFCC" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1611573139" type="1" fgLvl="100" fgClr="00FFFFCC" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -342,7 +876,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1611569456" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1611573139" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -364,7 +898,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1611569456"/>
+          <pm:border xmlns:pm="smNativeData" id="1611573139"/>
         </ext>
       </extLst>
     </border>
@@ -383,7 +917,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1611569456">
+          <pm:border xmlns:pm="smNativeData" id="1611573139">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
@@ -407,7 +941,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1611569456"/>
+          <pm:border xmlns:pm="smNativeData" id="1611573139"/>
         </ext>
       </extLst>
     </border>
@@ -421,7 +955,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="2"/>
@@ -429,11 +963,18 @@
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="6"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="6"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -447,10 +988,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1611569456" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1611573139" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1611569456" count="2">
+      <pm:colors xmlns:pm="smNativeData" id="1611573139" count="2">
         <pm:color name="Color 24" rgb="FFFFCC"/>
         <pm:color name="Color 25" rgb="B2B2B2"/>
       </pm:colors>
@@ -717,250 +1258,248 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.60"/>
   <cols>
-    <col min="1" max="1" width="23.745902" customWidth="1" style="7"/>
-    <col min="2" max="2" width="23.991803" customWidth="1" style="8"/>
-    <col min="3" max="5" width="23.991803" customWidth="1" style="7"/>
-    <col min="6" max="1025" width="10.827869" customWidth="1" style="7"/>
+    <col min="1" max="1" width="23.745902" customWidth="1" style="0"/>
+    <col min="2" max="2" width="23.991803" customWidth="1" style="7"/>
+    <col min="3" max="5" width="23.991803" customWidth="1" style="0"/>
+    <col min="6" max="1025" width="10.827869" customWidth="1" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
+      <c r="B2"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7"/>
+      <c r="B3"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7"/>
+      <c r="B4"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7"/>
+      <c r="B5"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7"/>
+      <c r="B6"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="E13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="8" t="s">
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B16" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="D16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="9" t="s">
+      <c r="B17"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="7"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="9" t="s">
+      <c r="B18" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="D18" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="9" t="s">
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="9" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="6" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="9" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1611569456" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1611573139" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -969,16 +1508,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1611569456" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1611569456" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611569456" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611569456" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1611573139" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1611573139" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611573139" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611573139" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611569456" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611573139" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -997,244 +1536,244 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.60"/>
   <cols>
-    <col min="1" max="1" width="23.745902" customWidth="1" style="7"/>
-    <col min="2" max="2" width="23.991803" customWidth="1" style="8"/>
-    <col min="3" max="5" width="23.991803" customWidth="1" style="7"/>
-    <col min="6" max="1025" width="10.827869" customWidth="1" style="7"/>
+    <col min="1" max="1" width="23.745902" customWidth="1" style="0"/>
+    <col min="2" max="2" width="23.991803" customWidth="1" style="7"/>
+    <col min="3" max="5" width="23.991803" customWidth="1" style="0"/>
+    <col min="6" max="1025" width="10.827869" customWidth="1" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
+      <c r="B2"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7"/>
+      <c r="B3"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7"/>
+      <c r="B4"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7"/>
+      <c r="B5"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7"/>
+      <c r="B6"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="8" t="s">
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="E11" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="8" t="s">
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="D12" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="E13" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="8" t="s">
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="8" t="s">
+      <c r="C14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="E15" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="8" t="s">
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="D16" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="E16" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="8" t="s">
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="7"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>69</v>
+      <c r="C18" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="9" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="6" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="9" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1611569456" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1611573139" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1243,16 +1782,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1611569456" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1611569456" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611569456" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611569456" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1611573139" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1611573139" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611573139" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611573139" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611569456" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611573139" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -1271,171 +1810,171 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.60"/>
   <cols>
-    <col min="1" max="1" width="23.745902" customWidth="1" style="7"/>
-    <col min="2" max="2" width="23.991803" customWidth="1" style="8"/>
-    <col min="3" max="5" width="23.991803" customWidth="1" style="7"/>
-    <col min="6" max="1025" width="10.827869" customWidth="1" style="7"/>
+    <col min="1" max="1" width="23.745902" customWidth="1" style="0"/>
+    <col min="2" max="2" width="23.991803" customWidth="1" style="7"/>
+    <col min="3" max="5" width="23.991803" customWidth="1" style="0"/>
+    <col min="6" max="1025" width="10.827869" customWidth="1" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
+      <c r="B2"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7"/>
+      <c r="B3"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7"/>
+      <c r="B4"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7"/>
+      <c r="B5"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7"/>
+      <c r="B6"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
+      <c r="A13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="6" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="9" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="6" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="9" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1611569456" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1611573139" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1444,16 +1983,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1611569456" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1611569456" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611569456" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611569456" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1611573139" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1611573139" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611573139" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611573139" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611569456" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611573139" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/Testes/UC01_Test Scenario.xlsx
+++ b/Testes/UC01_Test Scenario.xlsx
@@ -15,17 +15,17 @@
   <calcPr iterateDelta="0.0001"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1611573139" val="982" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1611573139" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1611573139" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1611573139"/>
+      <pm:revision xmlns:pm="smNativeData" day="1611573605" val="982" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1611573605" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1611573605" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1611573605"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="68">
   <si>
     <t>Project Name</t>
   </si>
@@ -82,18 +82,6 @@
 Valid Password </t>
   </si>
   <si>
-    <t xml:space="preserve">Valid User
-Invalid Password </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Invalid User
-Valid Password </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Invalid User
-Invalid Password </t>
-  </si>
-  <si>
     <t>Test Case Steps</t>
   </si>
   <si>
@@ -111,7 +99,7 @@
         <u val="none"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611573139" ulstyle="none">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611573605" ulstyle="none">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -133,7 +121,7 @@
         <u val="single"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611573139" ulstyle="single">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611573605" ulstyle="single">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -154,7 +142,7 @@
         <u val="none"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611573139" ulstyle="none">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611573605" ulstyle="none">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -176,7 +164,7 @@
         <u val="single"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611573139" ulstyle="single">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611573605" ulstyle="single">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -197,7 +185,7 @@
         <u val="none"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611573139" ulstyle="none">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611573605" ulstyle="none">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -219,7 +207,7 @@
         <u val="single"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611573139" ulstyle="single">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611573605" ulstyle="single">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -240,7 +228,7 @@
         <u val="none"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611573139" ulstyle="none">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611573605" ulstyle="none">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -262,7 +250,7 @@
         <u val="single"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611573139" ulstyle="single">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611573605" ulstyle="single">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -283,7 +271,7 @@
         <u val="none"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611573139" ulstyle="none">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611573605" ulstyle="none">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -305,7 +293,7 @@
         <u val="single"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611573139" ulstyle="single">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611573605" ulstyle="single">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -326,7 +314,7 @@
         <u val="none"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611573139" ulstyle="none">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611573605" ulstyle="none">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -352,7 +340,7 @@
         <u val="none"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611573139" ulstyle="none">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611573605" ulstyle="none">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -374,7 +362,7 @@
         <u val="single"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611573139" ulstyle="single">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611573605" ulstyle="single">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -395,7 +383,7 @@
         <u val="none"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611573139" ulstyle="none">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611573605" ulstyle="none">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -421,7 +409,7 @@
         <u val="none"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611573139" ulstyle="none">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611573605" ulstyle="none">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -443,7 +431,7 @@
         <u val="single"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611573139" ulstyle="single">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611573605" ulstyle="single">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -464,7 +452,7 @@
         <u val="none"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611573139" ulstyle="none">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611573605" ulstyle="none">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -486,7 +474,7 @@
         <u val="single"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611573139" ulstyle="single">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611573605" ulstyle="single">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -507,7 +495,7 @@
         <u val="none"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611573139" ulstyle="none">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611573605" ulstyle="none">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -529,7 +517,7 @@
         <u val="single"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611573139" ulstyle="single">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611573605" ulstyle="single">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -550,7 +538,7 @@
         <u val="none"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611573139" ulstyle="none">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611573605" ulstyle="none">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -572,7 +560,7 @@
         <u val="single"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611573139" ulstyle="single">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611573605" ulstyle="single">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -593,7 +581,205 @@
         <u val="none"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611573139" ulstyle="none">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611573605" ulstyle="none">
+              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
+              <pm:cs/>
+              <pm:ea/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t>O caso de uso termina.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="11"/>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="none"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611573605" ulstyle="none">
+              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
+              <pm:cs/>
+              <pm:ea/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve">O sistema deteta que os dados (ou algum subconjunto dos dados) introduzidos devem ser únicos e que já existem no sistema.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="11"/>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="single"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611573605" ulstyle="single">
+              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
+              <pm:cs/>
+              <pm:ea/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="11"/>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="none"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611573605" ulstyle="none">
+              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
+              <pm:cs/>
+              <pm:ea/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve">O sistema alerta o colaborador para o facto.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="11"/>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="single"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611573605" ulstyle="single">
+              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
+              <pm:cs/>
+              <pm:ea/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve">3. </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="11"/>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="none"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611573605" ulstyle="none">
+              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
+              <pm:cs/>
+              <pm:ea/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve">O sistema permite a sua alteração.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="11"/>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="single"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611573605" ulstyle="single">
+              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
+              <pm:cs/>
+              <pm:ea/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve">4. </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="11"/>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="none"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611573605" ulstyle="none">
+              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
+              <pm:cs/>
+              <pm:ea/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve">O colaborador não altera os dados.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="11"/>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="single"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611573605" ulstyle="single">
+              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
+              <pm:cs/>
+              <pm:ea/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve">5. </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="11"/>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="none"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611573605" ulstyle="none">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -616,18 +802,6 @@
   <si>
     <t>username: a@b.pt
 password: 1234</t>
-  </si>
-  <si>
-    <t>username: a@b.pt
-password: xxxx</t>
-  </si>
-  <si>
-    <t>username: a@b.
-password: 1234</t>
-  </si>
-  <si>
-    <t>username: a@b.
-password: xxxx</t>
   </si>
   <si>
     <t>Post Conditions</t>
@@ -782,7 +956,7 @@
       <sz val="12"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1611573139" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611573605" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Times New Roman" sz="240" lang="default"/>
             <pm:ea face="SimSun" sz="240" lang="default"/>
@@ -797,7 +971,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1611573139" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611573605" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -812,7 +986,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1611573139" ulstyle="none">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611573605" ulstyle="none">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Arial" sz="220" lang="default"/>
             <pm:ea face="Arial" sz="220" lang="default"/>
@@ -828,7 +1002,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1611573139" ulstyle="single">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611573605" ulstyle="single">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Arial" sz="220" lang="default"/>
             <pm:ea face="Arial" sz="220" lang="default"/>
@@ -843,7 +1017,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1611573139" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611573605" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -865,7 +1039,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1611573139" type="1" fgLvl="100" fgClr="00FFFFCC" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1611573605" type="1" fgLvl="100" fgClr="00FFFFCC" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -876,7 +1050,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1611573139" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1611573605" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -898,7 +1072,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1611573139"/>
+          <pm:border xmlns:pm="smNativeData" id="1611573605"/>
         </ext>
       </extLst>
     </border>
@@ -917,7 +1091,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1611573139">
+          <pm:border xmlns:pm="smNativeData" id="1611573605">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
@@ -941,7 +1115,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1611573139"/>
+          <pm:border xmlns:pm="smNativeData" id="1611573605"/>
         </ext>
       </extLst>
     </border>
@@ -955,7 +1129,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="2"/>
@@ -975,6 +1149,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -988,10 +1165,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1611573139" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1611573605" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1611573139" count="2">
+      <pm:colors xmlns:pm="smNativeData" id="1611573605" count="2">
         <pm:color name="Color 24" rgb="FFFFCC"/>
         <pm:color name="Color 25" rgb="B2B2B2"/>
       </pm:colors>
@@ -1259,7 +1436,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.60"/>
@@ -1365,141 +1542,143 @@
         <v>17</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="E12" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="7"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>27</v>
-      </c>
       <c r="D13" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B17"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1611573139" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1611573605" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1508,16 +1687,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1611573139" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1611573139" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611573139" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611573139" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1611573605" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1611573605" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611573605" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611573605" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611573139" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611573605" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -1600,16 +1779,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1617,16 +1796,16 @@
         <v>11</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1634,146 +1813,146 @@
         <v>16</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B17"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1611573139" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1611573605" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1782,16 +1961,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1611573139" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1611573139" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611573139" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611573139" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1611573605" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1611573605" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611573605" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611573605" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611573139" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611573605" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -1874,16 +2053,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1904,7 +2083,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -1912,7 +2091,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -1920,7 +2099,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1928,7 +2107,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1936,7 +2115,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1944,12 +2123,12 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1957,24 +2136,24 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1611573139" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1611573605" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1983,16 +2162,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1611573139" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1611573139" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611573139" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611573139" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1611573605" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1611573605" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611573605" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611573605" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611573139" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611573605" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/Testes/UC01_Test Scenario.xlsx
+++ b/Testes/UC01_Test Scenario.xlsx
@@ -15,17 +15,17 @@
   <calcPr iterateDelta="0.0001"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1611573605" val="982" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1611573605" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1611573605" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1611573605"/>
+      <pm:revision xmlns:pm="smNativeData" day="1611574259" val="982" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1611574259" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1611574259" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1611574259"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="73">
   <si>
     <t>Project Name</t>
   </si>
@@ -48,7 +48,7 @@
     <t>Test Scenario ID</t>
   </si>
   <si>
-    <t>TS_001</t>
+    <t>TS_01</t>
   </si>
   <si>
     <t>Test Scenario Description</t>
@@ -63,16 +63,16 @@
     <t>Test Case ID</t>
   </si>
   <si>
-    <t>Reg_Org_001</t>
-  </si>
-  <si>
-    <t>TC_Login_002</t>
-  </si>
-  <si>
-    <t>TC_Login_003</t>
-  </si>
-  <si>
-    <t>TC_Login_004</t>
+    <t>TC_Reg_Org_001</t>
+  </si>
+  <si>
+    <t>TC_Reg_Org_002</t>
+  </si>
+  <si>
+    <t>TC_Reg_Org_003</t>
+  </si>
+  <si>
+    <t>TC_Reg_Org_004</t>
   </si>
   <si>
     <t>Test Case Description</t>
@@ -99,7 +99,7 @@
         <u val="none"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611573605" ulstyle="none">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611574259" ulstyle="none">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -121,7 +121,7 @@
         <u val="single"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611573605" ulstyle="single">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611574259" ulstyle="single">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -142,7 +142,7 @@
         <u val="none"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611573605" ulstyle="none">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611574259" ulstyle="none">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -164,7 +164,7 @@
         <u val="single"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611573605" ulstyle="single">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611574259" ulstyle="single">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -185,7 +185,7 @@
         <u val="none"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611573605" ulstyle="none">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611574259" ulstyle="none">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -207,7 +207,7 @@
         <u val="single"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611573605" ulstyle="single">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611574259" ulstyle="single">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -228,7 +228,7 @@
         <u val="none"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611573605" ulstyle="none">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611574259" ulstyle="none">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -250,7 +250,7 @@
         <u val="single"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611573605" ulstyle="single">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611574259" ulstyle="single">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -271,7 +271,7 @@
         <u val="none"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611573605" ulstyle="none">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611574259" ulstyle="none">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -293,7 +293,7 @@
         <u val="single"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611573605" ulstyle="single">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611574259" ulstyle="single">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -314,7 +314,7 @@
         <u val="none"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611573605" ulstyle="none">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611574259" ulstyle="none">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -340,7 +340,7 @@
         <u val="none"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611573605" ulstyle="none">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611574259" ulstyle="none">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -362,7 +362,7 @@
         <u val="single"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611573605" ulstyle="single">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611574259" ulstyle="single">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -383,7 +383,7 @@
         <u val="none"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611573605" ulstyle="none">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611574259" ulstyle="none">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -409,7 +409,7 @@
         <u val="none"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611573605" ulstyle="none">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611574259" ulstyle="none">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -431,7 +431,7 @@
         <u val="single"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611573605" ulstyle="single">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611574259" ulstyle="single">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -452,7 +452,7 @@
         <u val="none"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611573605" ulstyle="none">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611574259" ulstyle="none">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -474,7 +474,7 @@
         <u val="single"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611573605" ulstyle="single">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611574259" ulstyle="single">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -495,7 +495,7 @@
         <u val="none"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611573605" ulstyle="none">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611574259" ulstyle="none">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -517,7 +517,7 @@
         <u val="single"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611573605" ulstyle="single">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611574259" ulstyle="single">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -538,7 +538,7 @@
         <u val="none"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611573605" ulstyle="none">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611574259" ulstyle="none">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -560,7 +560,7 @@
         <u val="single"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611573605" ulstyle="single">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611574259" ulstyle="single">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -581,7 +581,7 @@
         <u val="none"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611573605" ulstyle="none">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611574259" ulstyle="none">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -607,7 +607,7 @@
         <u val="none"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611573605" ulstyle="none">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611574259" ulstyle="none">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -629,7 +629,7 @@
         <u val="single"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611573605" ulstyle="single">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611574259" ulstyle="single">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -650,7 +650,7 @@
         <u val="none"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611573605" ulstyle="none">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611574259" ulstyle="none">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -672,7 +672,7 @@
         <u val="single"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611573605" ulstyle="single">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611574259" ulstyle="single">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -693,7 +693,7 @@
         <u val="none"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611573605" ulstyle="none">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611574259" ulstyle="none">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -715,7 +715,7 @@
         <u val="single"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611573605" ulstyle="single">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611574259" ulstyle="single">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -736,7 +736,7 @@
         <u val="none"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611573605" ulstyle="none">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611574259" ulstyle="none">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -758,7 +758,7 @@
         <u val="single"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611573605" ulstyle="single">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611574259" ulstyle="single">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -779,7 +779,7 @@
         <u val="none"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611573605" ulstyle="none">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611574259" ulstyle="none">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -810,13 +810,25 @@
     <t>A organização fica registada na plataforma</t>
   </si>
   <si>
-    <t>Error message "invalid user or password"</t>
+    <t>Error message "Operação cancelada"</t>
+  </si>
+  <si>
+    <t>Error message "Insira os dados em falta"</t>
+  </si>
+  <si>
+    <t>Error message "Esses dados já existem"</t>
   </si>
   <si>
     <t>Expected Result</t>
   </si>
   <si>
-    <t>Popup Message: Invalid username or password</t>
+    <t>Popup Message: Operação cancelada</t>
+  </si>
+  <si>
+    <t>Popup Message: Insira os dados em falta</t>
+  </si>
+  <si>
+    <t>Popup Message: Esses dados já existem</t>
   </si>
   <si>
     <t>Actual Result</t>
@@ -838,6 +850,9 @@
   </si>
   <si>
     <t>Comments</t>
+  </si>
+  <si>
+    <t>TS_001</t>
   </si>
   <si>
     <t>Mover ficheiro de uma pasta para outra</t>
@@ -956,7 +971,7 @@
       <sz val="12"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1611573605" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611574259" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Times New Roman" sz="240" lang="default"/>
             <pm:ea face="SimSun" sz="240" lang="default"/>
@@ -971,7 +986,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1611573605" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611574259" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -986,7 +1001,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1611573605" ulstyle="none">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611574259" ulstyle="none">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Arial" sz="220" lang="default"/>
             <pm:ea face="Arial" sz="220" lang="default"/>
@@ -1002,7 +1017,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1611573605" ulstyle="single">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611574259" ulstyle="single">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Arial" sz="220" lang="default"/>
             <pm:ea face="Arial" sz="220" lang="default"/>
@@ -1017,7 +1032,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1611573605" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611574259" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -1039,7 +1054,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1611573605" type="1" fgLvl="100" fgClr="00FFFFCC" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1611574259" type="1" fgLvl="100" fgClr="00FFFFCC" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1050,7 +1065,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1611573605" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1611574259" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1072,7 +1087,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1611573605"/>
+          <pm:border xmlns:pm="smNativeData" id="1611574259"/>
         </ext>
       </extLst>
     </border>
@@ -1091,7 +1106,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1611573605">
+          <pm:border xmlns:pm="smNativeData" id="1611574259">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
@@ -1115,7 +1130,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1611573605"/>
+          <pm:border xmlns:pm="smNativeData" id="1611574259"/>
         </ext>
       </extLst>
     </border>
@@ -1129,7 +1144,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="2"/>
@@ -1152,6 +1167,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="6" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -1165,10 +1186,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1611573605" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1611574259" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1611573605" count="2">
+      <pm:colors xmlns:pm="smNativeData" id="1611574259" count="2">
         <pm:color name="Color 24" rgb="FFFFCC"/>
         <pm:color name="Color 25" rgb="B2B2B2"/>
       </pm:colors>
@@ -1435,56 +1456,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" view="normal" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.60"/>
   <cols>
-    <col min="1" max="1" width="23.745902" customWidth="1" style="0"/>
+    <col min="1" max="1" width="23.745902" customWidth="1" style="12"/>
     <col min="2" max="2" width="23.991803" customWidth="1" style="7"/>
     <col min="3" max="5" width="23.991803" customWidth="1" style="0"/>
     <col min="6" max="1025" width="10.827869" customWidth="1" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B1"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B2"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B3"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B4"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B5"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
       <c r="B6"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -1501,7 +1522,7 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -1518,7 +1539,7 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="13" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -1535,7 +1556,7 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -1552,7 +1573,7 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="13" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -1569,7 +1590,7 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="13" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -1586,7 +1607,7 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -1603,7 +1624,7 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="13" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="8" t="s">
@@ -1613,72 +1634,72 @@
         <v>29</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="6" t="s">
-        <v>30</v>
+      <c r="A16" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="6" t="s">
-        <v>32</v>
+      <c r="A17" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="B17"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="6" t="s">
-        <v>33</v>
+      <c r="A18" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="6" t="s">
-        <v>36</v>
+      <c r="A19" s="13" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="6" t="s">
-        <v>37</v>
+      <c r="A20" s="13" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="6" t="s">
-        <v>38</v>
+      <c r="A21" s="13" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1611573605" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1611574259" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1687,16 +1708,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1611573605" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1611573605" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611573605" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611573605" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1611574259" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1611574259" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611574259" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611574259" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611573605" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611574259" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -1762,16 +1783,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1779,16 +1800,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1796,16 +1817,16 @@
         <v>11</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1813,16 +1834,16 @@
         <v>16</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1830,16 +1851,16 @@
         <v>18</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1847,16 +1868,16 @@
         <v>23</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1864,16 +1885,16 @@
         <v>25</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1881,78 +1902,78 @@
         <v>27</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="6" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B17"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1611573605" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1611574259" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1961,16 +1982,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1611573605" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1611573605" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611573605" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611573605" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1611574259" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1611574259" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611574259" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611574259" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611573605" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611574259" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -2036,16 +2057,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2053,16 +2074,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2115,7 +2136,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -2123,12 +2144,12 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="6" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -2136,24 +2157,24 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1611573605" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1611574259" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2162,16 +2183,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1611573605" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1611573605" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611573605" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611573605" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1611574259" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1611574259" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611574259" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611574259" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611573605" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611574259" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/Testes/UC01_Test Scenario.xlsx
+++ b/Testes/UC01_Test Scenario.xlsx
@@ -15,17 +15,17 @@
   <calcPr iterateDelta="0.0001"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1611574259" val="982" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1611574259" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1611574259" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1611574259"/>
+      <pm:revision xmlns:pm="smNativeData" day="1611672184" val="982" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1611672184" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1611672184" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1611672184"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="76">
   <si>
     <t>Project Name</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>TS_01</t>
+  </si>
+  <si>
+    <t>TS_02</t>
   </si>
   <si>
     <t>Test Scenario Description</t>
@@ -82,6 +85,9 @@
 Valid Password </t>
   </si>
   <si>
+    <t>Invalid User</t>
+  </si>
+  <si>
     <t>Test Case Steps</t>
   </si>
   <si>
@@ -99,7 +105,7 @@
         <u val="none"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611574259" ulstyle="none">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="none">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -121,7 +127,7 @@
         <u val="single"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611574259" ulstyle="single">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="single">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -142,7 +148,7 @@
         <u val="none"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611574259" ulstyle="none">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="none">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -164,7 +170,7 @@
         <u val="single"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611574259" ulstyle="single">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="single">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -185,7 +191,7 @@
         <u val="none"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611574259" ulstyle="none">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="none">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -207,7 +213,7 @@
         <u val="single"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611574259" ulstyle="single">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="single">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -228,7 +234,7 @@
         <u val="none"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611574259" ulstyle="none">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="none">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -250,7 +256,7 @@
         <u val="single"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611574259" ulstyle="single">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="single">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -271,7 +277,7 @@
         <u val="none"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611574259" ulstyle="none">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="none">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -293,7 +299,7 @@
         <u val="single"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611574259" ulstyle="single">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="single">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -314,7 +320,7 @@
         <u val="none"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611574259" ulstyle="none">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="none">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -340,7 +346,7 @@
         <u val="none"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611574259" ulstyle="none">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="none">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -362,7 +368,7 @@
         <u val="single"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611574259" ulstyle="single">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="single">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -383,7 +389,7 @@
         <u val="none"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611574259" ulstyle="none">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="none">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -409,7 +415,7 @@
         <u val="none"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611574259" ulstyle="none">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="none">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -431,7 +437,7 @@
         <u val="single"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611574259" ulstyle="single">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="single">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -452,7 +458,7 @@
         <u val="none"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611574259" ulstyle="none">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="none">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -474,7 +480,7 @@
         <u val="single"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611574259" ulstyle="single">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="single">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -495,7 +501,7 @@
         <u val="none"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611574259" ulstyle="none">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="none">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -517,7 +523,7 @@
         <u val="single"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611574259" ulstyle="single">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="single">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -538,7 +544,7 @@
         <u val="none"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611574259" ulstyle="none">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="none">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -560,7 +566,7 @@
         <u val="single"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611574259" ulstyle="single">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="single">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -581,7 +587,7 @@
         <u val="none"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611574259" ulstyle="none">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="none">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -607,7 +613,7 @@
         <u val="none"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611574259" ulstyle="none">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="none">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -629,7 +635,7 @@
         <u val="single"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611574259" ulstyle="single">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="single">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -650,7 +656,7 @@
         <u val="none"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611574259" ulstyle="none">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="none">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -672,7 +678,7 @@
         <u val="single"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611574259" ulstyle="single">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="single">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -693,7 +699,7 @@
         <u val="none"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611574259" ulstyle="none">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="none">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -715,7 +721,7 @@
         <u val="single"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611574259" ulstyle="single">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="single">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -736,7 +742,7 @@
         <u val="none"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611574259" ulstyle="none">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="none">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -758,7 +764,7 @@
         <u val="single"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611574259" ulstyle="single">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="single">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -779,7 +785,7 @@
         <u val="none"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611574259" ulstyle="none">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="none">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -789,6 +795,12 @@
       </rPr>
       <t>O caso de uso termina.</t>
     </r>
+  </si>
+  <si>
+    <t>1. O utilizador não registado informa um email inválido.
+2. O sistema solicita a inserção de um email válido.
+3. O utilizador não registado não introduz quaisquer dados.
+4. O caso de uso termina.</t>
   </si>
   <si>
     <t>Preconditions</t>
@@ -963,7 +975,7 @@
     <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* (#,##0);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="9" formatCode="0%"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -971,7 +983,7 @@
       <sz val="12"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1611574259" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Times New Roman" sz="240" lang="default"/>
             <pm:ea face="SimSun" sz="240" lang="default"/>
@@ -986,7 +998,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1611574259" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1001,7 +1013,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1611574259" ulstyle="none">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="none">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Arial" sz="220" lang="default"/>
             <pm:ea face="Arial" sz="220" lang="default"/>
@@ -1017,25 +1029,10 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1611574259" ulstyle="single">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="single">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Arial" sz="220" lang="default"/>
             <pm:ea face="Arial" sz="220" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1611574259" ulstyle="none" kern="1">
-            <pm:latin face="Calibri" sz="220" lang="default"/>
-            <pm:cs face="Times New Roman" sz="220" lang="default"/>
-            <pm:ea face="SimSun" sz="220" lang="default"/>
           </pm:charSpec>
         </ext>
       </extLst>
@@ -1054,7 +1051,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1611574259" type="1" fgLvl="100" fgClr="00FFFFCC" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1611672184" type="1" fgLvl="100" fgClr="00FFFFCC" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1065,7 +1062,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1611574259" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1611672184" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1087,7 +1084,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1611574259"/>
+          <pm:border xmlns:pm="smNativeData" id="1611672184"/>
         </ext>
       </extLst>
     </border>
@@ -1106,7 +1103,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1611574259">
+          <pm:border xmlns:pm="smNativeData" id="1611672184">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
@@ -1130,7 +1127,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1611574259"/>
+          <pm:border xmlns:pm="smNativeData" id="1611672184"/>
         </ext>
       </extLst>
     </border>
@@ -1144,7 +1141,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="2"/>
@@ -1164,14 +1161,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="6" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1186,10 +1186,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1611574259" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1611672184" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1611574259" count="2">
+      <pm:colors xmlns:pm="smNativeData" id="1611672184" count="2">
         <pm:color name="Color 24" rgb="FFFFCC"/>
         <pm:color name="Color 25" rgb="B2B2B2"/>
       </pm:colors>
@@ -1454,58 +1454,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.60"/>
   <cols>
-    <col min="1" max="1" width="23.745902" customWidth="1" style="12"/>
+    <col min="1" max="1" width="23.745902" customWidth="1" style="11"/>
     <col min="2" max="2" width="23.991803" customWidth="1" style="7"/>
     <col min="3" max="5" width="23.991803" customWidth="1" style="0"/>
-    <col min="6" max="1025" width="10.827869" customWidth="1" style="0"/>
+    <col min="6" max="6" width="21.729508" customWidth="1" style="13"/>
+    <col min="7" max="1025" width="10.827869" customWidth="1" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B2"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B3"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B4"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B5"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B6"/>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:6">
+      <c r="A8" s="12" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -1520,186 +1521,198 @@
       <c r="E8" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="13" t="s">
+      <c r="F8" s="7" t="s">
         <v>8</v>
       </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="B9" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="13" t="s">
-        <v>11</v>
+      <c r="A10" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="13" t="s">
         <v>16</v>
       </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="12" t="s">
+        <v>17</v>
+      </c>
       <c r="B11" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="13" t="s">
         <v>18</v>
       </c>
+      <c r="F11" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="B12" s="9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="13" t="s">
         <v>23</v>
       </c>
+      <c r="E12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="B13" s="8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="13" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="13" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>28</v>
-      </c>
       <c r="C16" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="13" t="s">
-        <v>36</v>
+      <c r="A17" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="B17"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="13" t="s">
-        <v>37</v>
+      <c r="A18" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="13" t="s">
-        <v>40</v>
+      <c r="A19" s="12" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="13" t="s">
-        <v>41</v>
+      <c r="A20" s="12" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="13" t="s">
-        <v>42</v>
+      <c r="A21" s="12" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1611574259" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1611672184" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1708,16 +1721,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1611574259" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1611574259" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611574259" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611574259" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1611672184" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1611672184" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611672184" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611672184" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611574259" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611672184" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -1783,197 +1796,197 @@
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B17"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1611574259" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1611672184" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1982,16 +1995,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1611574259" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1611574259" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611574259" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611574259" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1611672184" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1611672184" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611672184" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611672184" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611574259" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611672184" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -2057,38 +2070,38 @@
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -2096,7 +2109,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -2104,7 +2117,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -2112,7 +2125,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -2120,7 +2133,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -2128,7 +2141,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -2136,7 +2149,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -2144,12 +2157,12 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -2157,24 +2170,24 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1611574259" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1611672184" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2183,16 +2196,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1611574259" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1611574259" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611574259" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611574259" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1611672184" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1611672184" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611672184" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611672184" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611574259" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611672184" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/Testes/UC01_Test Scenario.xlsx
+++ b/Testes/UC01_Test Scenario.xlsx
@@ -15,17 +15,17 @@
   <calcPr iterateDelta="0.0001"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1611672184" val="982" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1611672184" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1611672184" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1611672184"/>
+      <pm:revision xmlns:pm="smNativeData" day="1611673180" val="982" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1611673180" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1611673180" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1611673180"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="77">
   <si>
     <t>Project Name</t>
   </si>
@@ -51,13 +51,10 @@
     <t>TS_01</t>
   </si>
   <si>
-    <t>TS_02</t>
-  </si>
-  <si>
     <t>Test Scenario Description</t>
   </si>
   <si>
-    <t>Registar a Oorganização</t>
+    <t>Registar a Organização</t>
   </si>
   <si>
     <t>Check LOGIN functionality</t>
@@ -76,6 +73,9 @@
   </si>
   <si>
     <t>TC_Reg_Org_004</t>
+  </si>
+  <si>
+    <t>TC_Reg_Org_005</t>
   </si>
   <si>
     <t>Test Case Description</t>
@@ -95,240 +95,12 @@
       <t xml:space="preserve">1. </t>
     </r>
     <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="11"/>
-        <b val="0"/>
-        <i val="0"/>
-        <u val="none"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="none">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t xml:space="preserve">O colaborador inicia o registo de organização.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="11"/>
-        <b val="0"/>
-        <i val="0"/>
-        <u val="single"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="single">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t xml:space="preserve">2. </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="11"/>
-        <b val="0"/>
-        <i val="0"/>
-        <u val="none"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="none">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t xml:space="preserve">O sistema solicita os dados necessários (Nome Organização, NIF, Endereços, Contacto).
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="11"/>
-        <b val="0"/>
-        <i val="0"/>
-        <u val="single"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="single">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t xml:space="preserve">3. </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="11"/>
-        <b val="0"/>
-        <i val="0"/>
-        <u val="none"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="none">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t xml:space="preserve">O colaborador introduz os dados solicitados.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="11"/>
-        <b val="0"/>
-        <i val="0"/>
-        <u val="single"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="single">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t xml:space="preserve">4. </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="11"/>
-        <b val="0"/>
-        <i val="0"/>
-        <u val="none"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="none">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t xml:space="preserve">O sistema valida e apresenta os dados ao colaborador, pedindo que os confirme.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="11"/>
-        <b val="0"/>
-        <i val="0"/>
-        <u val="single"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="single">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t xml:space="preserve">5. </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="11"/>
-        <b val="0"/>
-        <i val="0"/>
-        <u val="none"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="none">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t xml:space="preserve">O colaborador confirma os dados.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="11"/>
-        <b val="0"/>
-        <i val="0"/>
-        <u val="single"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="single">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t xml:space="preserve">6. </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="11"/>
-        <b val="0"/>
-        <i val="0"/>
-        <u val="none"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="none">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t>O sistema regista os dados e informa o colaborador do sucesso da operação.</t>
+      <t>O colaborador inicia o registo de organização.
+2. O sistema solicita os dados necessários (Nome Organização, NIF, Endereços, Contacto).
+3. O colaborador introduz os dados solicitados.
+4. O sistema valida e apresenta os dados ao colaborador, pedindo que os confirme.
+5. O colaborador confirma os dados.
+6. O sistema regista os dados e informa o colaborador do sucesso da operação.</t>
     </r>
   </si>
   <si>
@@ -336,68 +108,8 @@
       <t xml:space="preserve">1. </t>
     </r>
     <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="11"/>
-        <b val="0"/>
-        <i val="0"/>
-        <u val="none"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="none">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t xml:space="preserve">O colaborador solicita o cancelamento do registo da organização.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="11"/>
-        <b val="0"/>
-        <i val="0"/>
-        <u val="single"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="single">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t xml:space="preserve">2. </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="11"/>
-        <b val="0"/>
-        <i val="0"/>
-        <u val="none"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="none">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t>O caso de uso termina.</t>
+      <t>O colaborador solicita o cancelamento do registo da organização.
+2. O caso de uso termina.</t>
     </r>
   </si>
   <si>
@@ -405,197 +117,11 @@
       <t xml:space="preserve">1. </t>
     </r>
     <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="11"/>
-        <b val="0"/>
-        <i val="0"/>
-        <u val="none"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="none">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t xml:space="preserve">Dados mínimos obrigatórios em falta.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="11"/>
-        <b val="0"/>
-        <i val="0"/>
-        <u val="single"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="single">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t xml:space="preserve">2. </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="11"/>
-        <b val="0"/>
-        <i val="0"/>
-        <u val="none"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="none">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t xml:space="preserve">O sistema informa quais os dados em falta.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="11"/>
-        <b val="0"/>
-        <i val="0"/>
-        <u val="single"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="single">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t>3.</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="11"/>
-        <b val="0"/>
-        <i val="0"/>
-        <u val="none"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="none">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t xml:space="preserve"> O sistema permite a introdução dos dados em falta.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="11"/>
-        <b val="0"/>
-        <i val="0"/>
-        <u val="single"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="single">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t xml:space="preserve">4. </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="11"/>
-        <b val="0"/>
-        <i val="0"/>
-        <u val="none"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="none">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t xml:space="preserve">O colaborador não insere os dados.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="11"/>
-        <b val="0"/>
-        <i val="0"/>
-        <u val="single"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="single">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t xml:space="preserve">5. </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="11"/>
-        <b val="0"/>
-        <i val="0"/>
-        <u val="none"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="none">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t>O caso de uso termina.</t>
+      <t>Dados mínimos obrigatórios em falta.
+2. O sistema informa quais os dados em falta.
+3. O sistema permite a introdução dos dados em falta.
+4. O colaborador não insere os dados.
+5. O caso de uso termina.</t>
     </r>
   </si>
   <si>
@@ -603,197 +129,11 @@
       <t xml:space="preserve">1. </t>
     </r>
     <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="11"/>
-        <b val="0"/>
-        <i val="0"/>
-        <u val="none"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="none">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t xml:space="preserve">O sistema deteta que os dados (ou algum subconjunto dos dados) introduzidos devem ser únicos e que já existem no sistema.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="11"/>
-        <b val="0"/>
-        <i val="0"/>
-        <u val="single"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="single">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t xml:space="preserve">2. </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="11"/>
-        <b val="0"/>
-        <i val="0"/>
-        <u val="none"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="none">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t xml:space="preserve">O sistema alerta o colaborador para o facto.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="11"/>
-        <b val="0"/>
-        <i val="0"/>
-        <u val="single"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="single">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t xml:space="preserve">3. </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="11"/>
-        <b val="0"/>
-        <i val="0"/>
-        <u val="none"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="none">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t xml:space="preserve">O sistema permite a sua alteração.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="11"/>
-        <b val="0"/>
-        <i val="0"/>
-        <u val="single"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="single">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t xml:space="preserve">4. </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="11"/>
-        <b val="0"/>
-        <i val="0"/>
-        <u val="none"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="none">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t xml:space="preserve">O colaborador não altera os dados.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="11"/>
-        <b val="0"/>
-        <i val="0"/>
-        <u val="single"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="single">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t xml:space="preserve">5. </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="11"/>
-        <b val="0"/>
-        <i val="0"/>
-        <u val="none"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="none">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t>O caso de uso termina.</t>
+      <t>O sistema deteta que os dados (ou algum subconjunto dos dados) introduzidos devem ser únicos e que já existem no sistema.
+2. O sistema alerta o colaborador para o facto.
+3. O sistema permite a sua alteração.
+4. O colaborador não altera os dados.
+5. O caso de uso termina.</t>
     </r>
   </si>
   <si>
@@ -831,6 +171,9 @@
     <t>Error message "Esses dados já existem"</t>
   </si>
   <si>
+    <t>Error message "Endereço de mail não registado na plataforma"</t>
+  </si>
+  <si>
     <t>Expected Result</t>
   </si>
   <si>
@@ -840,7 +183,7 @@
     <t>Popup Message: Insira os dados em falta</t>
   </si>
   <si>
-    <t>Popup Message: Esses dados já existem</t>
+    <t>Popup Message "Esses dados já existem"</t>
   </si>
   <si>
     <t>Actual Result</t>
@@ -975,7 +318,7 @@
     <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* (#,##0);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="9" formatCode="0%"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -983,7 +326,7 @@
       <sz val="12"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611673180" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Times New Roman" sz="240" lang="default"/>
             <pm:ea face="SimSun" sz="240" lang="default"/>
@@ -998,7 +341,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611673180" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1013,7 +356,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="none">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611673180" ulstyle="none">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Arial" sz="220" lang="default"/>
             <pm:ea face="Arial" sz="220" lang="default"/>
@@ -1029,10 +372,25 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="single">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611673180" ulstyle="single">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Arial" sz="220" lang="default"/>
             <pm:ea face="Arial" sz="220" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611673180" ulstyle="none" kern="1">
+            <pm:latin face="Calibri" sz="220" lang="default"/>
+            <pm:cs face="Times New Roman" sz="240" lang="default"/>
+            <pm:ea face="SimSun" sz="240" lang="default"/>
           </pm:charSpec>
         </ext>
       </extLst>
@@ -1051,7 +409,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1611672184" type="1" fgLvl="100" fgClr="00FFFFCC" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1611673180" type="1" fgLvl="100" fgClr="00FFFFCC" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1062,7 +420,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1611672184" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1611673180" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1084,7 +442,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1611672184"/>
+          <pm:border xmlns:pm="smNativeData" id="1611673180"/>
         </ext>
       </extLst>
     </border>
@@ -1103,7 +461,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1611672184">
+          <pm:border xmlns:pm="smNativeData" id="1611673180">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
@@ -1127,7 +485,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1611672184"/>
+          <pm:border xmlns:pm="smNativeData" id="1611673180"/>
         </ext>
       </extLst>
     </border>
@@ -1141,7 +499,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="2"/>
@@ -1155,12 +513,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1170,7 +522,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1186,10 +541,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1611672184" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1611673180" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1611672184" count="2">
+      <pm:colors xmlns:pm="smNativeData" id="1611673180" count="2">
         <pm:color name="Color 24" rgb="FFFFCC"/>
         <pm:color name="Color 25" rgb="B2B2B2"/>
       </pm:colors>
@@ -1462,51 +817,51 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.60"/>
   <cols>
-    <col min="1" max="1" width="23.745902" customWidth="1" style="11"/>
+    <col min="1" max="1" width="23.745902" customWidth="1" style="9"/>
     <col min="2" max="2" width="23.991803" customWidth="1" style="7"/>
     <col min="3" max="5" width="23.991803" customWidth="1" style="0"/>
-    <col min="6" max="6" width="21.729508" customWidth="1" style="13"/>
+    <col min="6" max="6" width="21.729508" customWidth="1" style="11"/>
     <col min="7" max="1025" width="10.827869" customWidth="1" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B2"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B3"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B4"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B5"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B6"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -1522,48 +877,51 @@
         <v>7</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="12" t="s">
+      <c r="B9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="C9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="D9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="12" t="s">
+      <c r="B10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="C10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="D10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="E10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="F10" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -1578,32 +936,32 @@
       <c r="E11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="10" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -1620,7 +978,7 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="10" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -1637,7 +995,7 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="8" t="s">
@@ -1652,67 +1010,76 @@
       <c r="E15" s="7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="12" t="s">
+      <c r="F15" s="7" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="12" t="s">
-        <v>39</v>
+      <c r="A17" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="B17"/>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="12" t="s">
-        <v>40</v>
+    <row r="18" spans="1:6">
+      <c r="A18" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="12" t="s">
-        <v>43</v>
+      <c r="A19" s="10" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="12" t="s">
-        <v>44</v>
+      <c r="A20" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="12" t="s">
-        <v>45</v>
+      <c r="A21" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1611672184" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1611673180" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1721,16 +1088,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1611672184" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1611672184" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611672184" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611672184" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1611673180" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1611673180" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611673180" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611673180" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611672184" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611673180" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -1796,50 +1163,50 @@
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1847,16 +1214,16 @@
         <v>17</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1864,16 +1231,16 @@
         <v>20</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1881,16 +1248,16 @@
         <v>26</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1898,16 +1265,16 @@
         <v>28</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1915,78 +1282,78 @@
         <v>30</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B17"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1611672184" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1611673180" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1995,16 +1362,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1611672184" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1611672184" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611672184" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611672184" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1611673180" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1611673180" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611673180" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611673180" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611672184" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611673180" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -2070,38 +1437,38 @@
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -2149,7 +1516,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -2157,12 +1524,12 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -2170,24 +1537,24 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1611672184" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1611673180" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2196,16 +1563,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1611672184" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1611672184" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611672184" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611672184" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1611673180" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1611673180" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611673180" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611673180" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611672184" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611673180" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/Testes/UC01_Test Scenario.xlsx
+++ b/Testes/UC01_Test Scenario.xlsx
@@ -15,17 +15,17 @@
   <calcPr iterateDelta="0.0001"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1611673180" val="982" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1611673180" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1611673180" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1611673180"/>
+      <pm:revision xmlns:pm="smNativeData" day="1611676518" val="982" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1611676518" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1611676518" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1611676518"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="81">
   <si>
     <t>Project Name</t>
   </si>
@@ -51,13 +51,22 @@
     <t>TS_01</t>
   </si>
   <si>
+    <t>TS_02</t>
+  </si>
+  <si>
+    <t>TS_03</t>
+  </si>
+  <si>
+    <t>TS_04</t>
+  </si>
+  <si>
+    <t>TS_05</t>
+  </si>
+  <si>
     <t>Test Scenario Description</t>
   </si>
   <si>
     <t>Registar a Organização</t>
-  </si>
-  <si>
-    <t>Check LOGIN functionality</t>
   </si>
   <si>
     <t>Test Case ID</t>
@@ -154,6 +163,10 @@
   <si>
     <t>username: a@b.pt
 password: 1234</t>
+  </si>
+  <si>
+    <t>username: invalid
+password: invalid</t>
   </si>
   <si>
     <t>Post Conditions</t>
@@ -326,7 +339,7 @@
       <sz val="12"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1611673180" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611676518" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Times New Roman" sz="240" lang="default"/>
             <pm:ea face="SimSun" sz="240" lang="default"/>
@@ -341,7 +354,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1611673180" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611676518" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -356,7 +369,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1611673180" ulstyle="none">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611676518" ulstyle="none">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Arial" sz="220" lang="default"/>
             <pm:ea face="Arial" sz="220" lang="default"/>
@@ -372,7 +385,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1611673180" ulstyle="single">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611676518" ulstyle="single">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Arial" sz="220" lang="default"/>
             <pm:ea face="Arial" sz="220" lang="default"/>
@@ -387,7 +400,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1611673180" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611676518" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="240" lang="default"/>
             <pm:ea face="SimSun" sz="240" lang="default"/>
@@ -409,7 +422,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1611673180" type="1" fgLvl="100" fgClr="00FFFFCC" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1611676518" type="1" fgLvl="100" fgClr="00FFFFCC" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -420,7 +433,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1611673180" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1611676518" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -442,7 +455,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1611673180"/>
+          <pm:border xmlns:pm="smNativeData" id="1611676518"/>
         </ext>
       </extLst>
     </border>
@@ -461,7 +474,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1611673180">
+          <pm:border xmlns:pm="smNativeData" id="1611676518">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
@@ -485,7 +498,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1611673180"/>
+          <pm:border xmlns:pm="smNativeData" id="1611676518"/>
         </ext>
       </extLst>
     </border>
@@ -541,10 +554,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1611673180" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1611676518" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1611673180" count="2">
+      <pm:colors xmlns:pm="smNativeData" id="1611676518" count="2">
         <pm:color name="Color 24" rgb="FFFFCC"/>
         <pm:color name="Color 25" rgb="B2B2B2"/>
       </pm:colors>
@@ -811,8 +824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.60"/>
@@ -868,218 +881,224 @@
         <v>7</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="10" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="10" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="10" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="10" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B17"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="10" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="10" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="10" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1611673180" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1611676518" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1088,16 +1107,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1611673180" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1611673180" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611673180" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611673180" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1611676518" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1611676518" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611676518" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611676518" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611673180" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611676518" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -1163,197 +1182,197 @@
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B17"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1611673180" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1611676518" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1362,16 +1381,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1611673180" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1611673180" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611673180" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611673180" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1611676518" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1611676518" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611676518" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611676518" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611673180" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611676518" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -1437,38 +1456,38 @@
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -1476,7 +1495,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -1484,7 +1503,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -1492,7 +1511,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -1500,7 +1519,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1508,7 +1527,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1516,7 +1535,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1524,12 +1543,12 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1537,24 +1556,24 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1611673180" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1611676518" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1563,16 +1582,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1611673180" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1611673180" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611673180" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611673180" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1611676518" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1611676518" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611676518" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611676518" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611673180" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611676518" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/Testes/UC01_Test Scenario.xlsx
+++ b/Testes/UC01_Test Scenario.xlsx
@@ -15,17 +15,17 @@
   <calcPr iterateDelta="0.0001"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1611672184" val="982" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1611672184" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1611672184" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1611672184"/>
+      <pm:revision xmlns:pm="smNativeData" day="1611676518" val="982" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1611676518" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1611676518" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1611676518"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="81">
   <si>
     <t>Project Name</t>
   </si>
@@ -54,13 +54,19 @@
     <t>TS_02</t>
   </si>
   <si>
+    <t>TS_03</t>
+  </si>
+  <si>
+    <t>TS_04</t>
+  </si>
+  <si>
+    <t>TS_05</t>
+  </si>
+  <si>
     <t>Test Scenario Description</t>
   </si>
   <si>
-    <t>Registar a Oorganização</t>
-  </si>
-  <si>
-    <t>Check LOGIN functionality</t>
+    <t>Registar a Organização</t>
   </si>
   <si>
     <t>Test Case ID</t>
@@ -76,6 +82,9 @@
   </si>
   <si>
     <t>TC_Reg_Org_004</t>
+  </si>
+  <si>
+    <t>TC_Reg_Org_005</t>
   </si>
   <si>
     <t>Test Case Description</t>
@@ -95,240 +104,12 @@
       <t xml:space="preserve">1. </t>
     </r>
     <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="11"/>
-        <b val="0"/>
-        <i val="0"/>
-        <u val="none"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="none">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t xml:space="preserve">O colaborador inicia o registo de organização.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="11"/>
-        <b val="0"/>
-        <i val="0"/>
-        <u val="single"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="single">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t xml:space="preserve">2. </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="11"/>
-        <b val="0"/>
-        <i val="0"/>
-        <u val="none"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="none">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t xml:space="preserve">O sistema solicita os dados necessários (Nome Organização, NIF, Endereços, Contacto).
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="11"/>
-        <b val="0"/>
-        <i val="0"/>
-        <u val="single"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="single">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t xml:space="preserve">3. </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="11"/>
-        <b val="0"/>
-        <i val="0"/>
-        <u val="none"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="none">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t xml:space="preserve">O colaborador introduz os dados solicitados.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="11"/>
-        <b val="0"/>
-        <i val="0"/>
-        <u val="single"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="single">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t xml:space="preserve">4. </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="11"/>
-        <b val="0"/>
-        <i val="0"/>
-        <u val="none"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="none">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t xml:space="preserve">O sistema valida e apresenta os dados ao colaborador, pedindo que os confirme.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="11"/>
-        <b val="0"/>
-        <i val="0"/>
-        <u val="single"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="single">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t xml:space="preserve">5. </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="11"/>
-        <b val="0"/>
-        <i val="0"/>
-        <u val="none"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="none">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t xml:space="preserve">O colaborador confirma os dados.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="11"/>
-        <b val="0"/>
-        <i val="0"/>
-        <u val="single"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="single">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t xml:space="preserve">6. </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="11"/>
-        <b val="0"/>
-        <i val="0"/>
-        <u val="none"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="none">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t>O sistema regista os dados e informa o colaborador do sucesso da operação.</t>
+      <t>O colaborador inicia o registo de organização.
+2. O sistema solicita os dados necessários (Nome Organização, NIF, Endereços, Contacto).
+3. O colaborador introduz os dados solicitados.
+4. O sistema valida e apresenta os dados ao colaborador, pedindo que os confirme.
+5. O colaborador confirma os dados.
+6. O sistema regista os dados e informa o colaborador do sucesso da operação.</t>
     </r>
   </si>
   <si>
@@ -336,68 +117,8 @@
       <t xml:space="preserve">1. </t>
     </r>
     <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="11"/>
-        <b val="0"/>
-        <i val="0"/>
-        <u val="none"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="none">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t xml:space="preserve">O colaborador solicita o cancelamento do registo da organização.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="11"/>
-        <b val="0"/>
-        <i val="0"/>
-        <u val="single"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="single">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t xml:space="preserve">2. </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="11"/>
-        <b val="0"/>
-        <i val="0"/>
-        <u val="none"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="none">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t>O caso de uso termina.</t>
+      <t>O colaborador solicita o cancelamento do registo da organização.
+2. O caso de uso termina.</t>
     </r>
   </si>
   <si>
@@ -405,197 +126,11 @@
       <t xml:space="preserve">1. </t>
     </r>
     <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="11"/>
-        <b val="0"/>
-        <i val="0"/>
-        <u val="none"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="none">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t xml:space="preserve">Dados mínimos obrigatórios em falta.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="11"/>
-        <b val="0"/>
-        <i val="0"/>
-        <u val="single"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="single">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t xml:space="preserve">2. </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="11"/>
-        <b val="0"/>
-        <i val="0"/>
-        <u val="none"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="none">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t xml:space="preserve">O sistema informa quais os dados em falta.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="11"/>
-        <b val="0"/>
-        <i val="0"/>
-        <u val="single"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="single">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t>3.</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="11"/>
-        <b val="0"/>
-        <i val="0"/>
-        <u val="none"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="none">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t xml:space="preserve"> O sistema permite a introdução dos dados em falta.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="11"/>
-        <b val="0"/>
-        <i val="0"/>
-        <u val="single"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="single">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t xml:space="preserve">4. </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="11"/>
-        <b val="0"/>
-        <i val="0"/>
-        <u val="none"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="none">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t xml:space="preserve">O colaborador não insere os dados.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="11"/>
-        <b val="0"/>
-        <i val="0"/>
-        <u val="single"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="single">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t xml:space="preserve">5. </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="11"/>
-        <b val="0"/>
-        <i val="0"/>
-        <u val="none"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="none">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t>O caso de uso termina.</t>
+      <t>Dados mínimos obrigatórios em falta.
+2. O sistema informa quais os dados em falta.
+3. O sistema permite a introdução dos dados em falta.
+4. O colaborador não insere os dados.
+5. O caso de uso termina.</t>
     </r>
   </si>
   <si>
@@ -603,197 +138,11 @@
       <t xml:space="preserve">1. </t>
     </r>
     <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="11"/>
-        <b val="0"/>
-        <i val="0"/>
-        <u val="none"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="none">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t xml:space="preserve">O sistema deteta que os dados (ou algum subconjunto dos dados) introduzidos devem ser únicos e que já existem no sistema.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="11"/>
-        <b val="0"/>
-        <i val="0"/>
-        <u val="single"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="single">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t xml:space="preserve">2. </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="11"/>
-        <b val="0"/>
-        <i val="0"/>
-        <u val="none"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="none">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t xml:space="preserve">O sistema alerta o colaborador para o facto.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="11"/>
-        <b val="0"/>
-        <i val="0"/>
-        <u val="single"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="single">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t xml:space="preserve">3. </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="11"/>
-        <b val="0"/>
-        <i val="0"/>
-        <u val="none"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="none">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t xml:space="preserve">O sistema permite a sua alteração.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="11"/>
-        <b val="0"/>
-        <i val="0"/>
-        <u val="single"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="single">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t xml:space="preserve">4. </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="11"/>
-        <b val="0"/>
-        <i val="0"/>
-        <u val="none"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="none">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t xml:space="preserve">O colaborador não altera os dados.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="11"/>
-        <b val="0"/>
-        <i val="0"/>
-        <u val="single"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="single">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t xml:space="preserve">5. </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="11"/>
-        <b val="0"/>
-        <i val="0"/>
-        <u val="none"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="none">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t>O caso de uso termina.</t>
+      <t>O sistema deteta que os dados (ou algum subconjunto dos dados) introduzidos devem ser únicos e que já existem no sistema.
+2. O sistema alerta o colaborador para o facto.
+3. O sistema permite a sua alteração.
+4. O colaborador não altera os dados.
+5. O caso de uso termina.</t>
     </r>
   </si>
   <si>
@@ -816,6 +165,10 @@
 password: 1234</t>
   </si>
   <si>
+    <t>username: invalid
+password: invalid</t>
+  </si>
+  <si>
     <t>Post Conditions</t>
   </si>
   <si>
@@ -831,6 +184,9 @@
     <t>Error message "Esses dados já existem"</t>
   </si>
   <si>
+    <t>Error message "Endereço de mail não registado na plataforma"</t>
+  </si>
+  <si>
     <t>Expected Result</t>
   </si>
   <si>
@@ -840,7 +196,7 @@
     <t>Popup Message: Insira os dados em falta</t>
   </si>
   <si>
-    <t>Popup Message: Esses dados já existem</t>
+    <t>Popup Message "Esses dados já existem"</t>
   </si>
   <si>
     <t>Actual Result</t>
@@ -975,7 +331,7 @@
     <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* (#,##0);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="9" formatCode="0%"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -983,7 +339,7 @@
       <sz val="12"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611676518" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Times New Roman" sz="240" lang="default"/>
             <pm:ea face="SimSun" sz="240" lang="default"/>
@@ -998,7 +354,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611676518" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1013,7 +369,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="none">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611676518" ulstyle="none">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Arial" sz="220" lang="default"/>
             <pm:ea face="Arial" sz="220" lang="default"/>
@@ -1029,10 +385,25 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1611672184" ulstyle="single">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611676518" ulstyle="single">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Arial" sz="220" lang="default"/>
             <pm:ea face="Arial" sz="220" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611676518" ulstyle="none" kern="1">
+            <pm:latin face="Calibri" sz="220" lang="default"/>
+            <pm:cs face="Times New Roman" sz="240" lang="default"/>
+            <pm:ea face="SimSun" sz="240" lang="default"/>
           </pm:charSpec>
         </ext>
       </extLst>
@@ -1051,7 +422,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1611672184" type="1" fgLvl="100" fgClr="00FFFFCC" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1611676518" type="1" fgLvl="100" fgClr="00FFFFCC" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1062,7 +433,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1611672184" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1611676518" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1084,7 +455,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1611672184"/>
+          <pm:border xmlns:pm="smNativeData" id="1611676518"/>
         </ext>
       </extLst>
     </border>
@@ -1103,7 +474,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1611672184">
+          <pm:border xmlns:pm="smNativeData" id="1611676518">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
@@ -1127,7 +498,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1611672184"/>
+          <pm:border xmlns:pm="smNativeData" id="1611676518"/>
         </ext>
       </extLst>
     </border>
@@ -1141,7 +512,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="2"/>
@@ -1155,12 +526,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1170,7 +535,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1186,10 +554,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1611672184" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1611676518" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1611672184" count="2">
+      <pm:colors xmlns:pm="smNativeData" id="1611676518" count="2">
         <pm:color name="Color 24" rgb="FFFFCC"/>
         <pm:color name="Color 25" rgb="B2B2B2"/>
       </pm:colors>
@@ -1456,263 +824,281 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.60"/>
   <cols>
-    <col min="1" max="1" width="23.745902" customWidth="1" style="11"/>
+    <col min="1" max="1" width="23.745902" customWidth="1" style="9"/>
     <col min="2" max="2" width="23.991803" customWidth="1" style="7"/>
     <col min="3" max="5" width="23.991803" customWidth="1" style="0"/>
-    <col min="6" max="6" width="21.729508" customWidth="1" style="13"/>
+    <col min="6" max="6" width="21.729508" customWidth="1" style="11"/>
     <col min="7" max="1025" width="10.827869" customWidth="1" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B2"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B3"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B4"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B5"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B6"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="12" t="s">
-        <v>9</v>
+      <c r="A9" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="12" t="s">
-        <v>17</v>
+      <c r="A11" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="10" t="s">
+      <c r="A12" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="B12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="C12" s="12" t="s">
         <v>25</v>
       </c>
+      <c r="D12" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="12" t="s">
-        <v>26</v>
+      <c r="A13" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="12" t="s">
-        <v>28</v>
+      <c r="A14" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="12" t="s">
-        <v>30</v>
+      <c r="A15" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="C16" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="12" t="s">
-        <v>39</v>
+      <c r="A17" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="B17"/>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="12" t="s">
-        <v>40</v>
+    <row r="18" spans="1:6">
+      <c r="A18" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="12" t="s">
-        <v>43</v>
+      <c r="A19" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="12" t="s">
-        <v>44</v>
+      <c r="A20" s="10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="12" t="s">
-        <v>45</v>
+      <c r="A21" s="10" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1611672184" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1611676518" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1721,16 +1107,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1611672184" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1611672184" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611672184" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611672184" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1611676518" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1611676518" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611676518" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611676518" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611672184" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611676518" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -1796,197 +1182,197 @@
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="6" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="6" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B17"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="6" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="6" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="6" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="6" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1611672184" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1611676518" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1995,16 +1381,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1611672184" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1611672184" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611672184" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611672184" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1611676518" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1611676518" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611676518" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611676518" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611672184" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611676518" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -2070,38 +1456,38 @@
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -2109,7 +1495,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -2117,7 +1503,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -2125,7 +1511,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -2133,7 +1519,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -2141,7 +1527,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -2149,7 +1535,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="6" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -2157,12 +1543,12 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="6" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="6" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -2170,24 +1556,24 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="6" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="6" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="6" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1611672184" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1611676518" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2196,16 +1582,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1611672184" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1611672184" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611672184" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611672184" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1611676518" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1611676518" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611676518" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611676518" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611672184" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611676518" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/Testes/UC01_Test Scenario.xlsx
+++ b/Testes/UC01_Test Scenario.xlsx
@@ -15,17 +15,17 @@
   <calcPr iterateDelta="0.0001"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1611676518" val="982" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1611676518" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1611676518" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1611676518"/>
+      <pm:revision xmlns:pm="smNativeData" day="1611677523" val="982" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1611677523" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1611677523" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1611677523"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="79">
   <si>
     <t>Project Name</t>
   </si>
@@ -72,7 +72,7 @@
     <t>Test Case ID</t>
   </si>
   <si>
-    <t>TC_Reg_Org_001</t>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>TC_Reg_Org_002</t>
@@ -190,13 +190,7 @@
     <t>Expected Result</t>
   </si>
   <si>
-    <t>Popup Message: Operação cancelada</t>
-  </si>
-  <si>
-    <t>Popup Message: Insira os dados em falta</t>
-  </si>
-  <si>
-    <t>Popup Message "Esses dados já existem"</t>
+    <t>COLOCAR A EXCEÇÃO</t>
   </si>
   <si>
     <t>Actual Result</t>
@@ -339,7 +333,7 @@
       <sz val="12"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1611676518" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611677523" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Times New Roman" sz="240" lang="default"/>
             <pm:ea face="SimSun" sz="240" lang="default"/>
@@ -354,7 +348,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1611676518" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611677523" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -369,7 +363,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1611676518" ulstyle="none">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611677523" ulstyle="none">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Arial" sz="220" lang="default"/>
             <pm:ea face="Arial" sz="220" lang="default"/>
@@ -385,7 +379,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1611676518" ulstyle="single">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611677523" ulstyle="single">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Arial" sz="220" lang="default"/>
             <pm:ea face="Arial" sz="220" lang="default"/>
@@ -400,7 +394,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1611676518" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611677523" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="240" lang="default"/>
             <pm:ea face="SimSun" sz="240" lang="default"/>
@@ -422,7 +416,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1611676518" type="1" fgLvl="100" fgClr="00FFFFCC" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1611677523" type="1" fgLvl="100" fgClr="00FFFFCC" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -433,7 +427,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1611676518" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1611677523" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -455,7 +449,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1611676518"/>
+          <pm:border xmlns:pm="smNativeData" id="1611677523"/>
         </ext>
       </extLst>
     </border>
@@ -474,7 +468,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1611676518">
+          <pm:border xmlns:pm="smNativeData" id="1611677523">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
@@ -498,7 +492,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1611676518"/>
+          <pm:border xmlns:pm="smNativeData" id="1611677523"/>
         </ext>
       </extLst>
     </border>
@@ -554,10 +548,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1611676518" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1611677523" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1611676518" count="2">
+      <pm:colors xmlns:pm="smNativeData" id="1611677523" count="2">
         <pm:color name="Color 24" rgb="FFFFCC"/>
         <pm:color name="Color 25" rgb="B2B2B2"/>
       </pm:colors>
@@ -825,7 +819,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.60"/>
@@ -1044,61 +1038,61 @@
         <v>41</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B17"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="D18" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1611676518" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1611677523" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1107,16 +1101,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1611676518" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1611676518" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611676518" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611676518" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1611677523" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1611677523" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611677523" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611677523" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611676518" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611677523" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -1182,16 +1176,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1199,16 +1193,16 @@
         <v>12</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1216,16 +1210,16 @@
         <v>14</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="E10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1233,16 +1227,16 @@
         <v>20</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="E11" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1250,16 +1244,16 @@
         <v>23</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1267,16 +1261,16 @@
         <v>29</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="E13" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1284,16 +1278,16 @@
         <v>31</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1301,16 +1295,16 @@
         <v>34</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="E15" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1318,61 +1312,61 @@
         <v>40</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="E16" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B17"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1611676518" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1611677523" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1381,16 +1375,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1611676518" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1611676518" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611676518" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611676518" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1611677523" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1611677523" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611677523" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611677523" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611676518" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611677523" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -1456,16 +1450,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1473,16 +1467,16 @@
         <v>12</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="E9" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1543,12 +1537,12 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1556,24 +1550,24 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1611676518" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1611677523" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1582,16 +1576,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1611676518" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1611676518" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611676518" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611676518" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1611677523" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1611677523" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611677523" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611677523" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611676518" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611677523" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
